--- a/example-meta.xlsx
+++ b/example-meta.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruix/Development/OpenSource/web3camp/nft-tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D56449F-395E-FB4C-ADB9-2AFA2F209D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C0EC95D-52AF-EA4F-93A1-D14E00BF3B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34940" yWindow="2740" windowWidth="27640" windowHeight="16900" xr2:uid="{632363BC-7884-DD40-B972-89CE6CF7AEA8}"/>
+    <workbookView xWindow="34540" yWindow="2660" windowWidth="27640" windowHeight="16900" xr2:uid="{632363BC-7884-DD40-B972-89CE6CF7AEA8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="My NFT" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Name</t>
   </si>
@@ -63,7 +63,10 @@
     <t>image.png</t>
   </si>
   <si>
-    <t>My NFT</t>
+    <t>NFT 1</t>
+  </si>
+  <si>
+    <t>NFT 2</t>
   </si>
 </sst>
 </file>
@@ -453,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCB8DBE9-157E-F84C-968A-D6F8248EF9B3}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -504,6 +507,17 @@
         <v>7</v>
       </c>
     </row>
+    <row r="3" spans="1:7" ht="18">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
